--- a/Bandit.xlsx
+++ b/Bandit.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shahaz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fava\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2427F6-B931-4FF8-8A8D-ED8D3B33950E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EE60E2-B040-48D0-B91A-DE8DF407F400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6000" yWindow="3510" windowWidth="18000" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="linux" sheetId="1" r:id="rId1"/>
+    <sheet name="sites" sheetId="2" r:id="rId2"/>
+    <sheet name="ubuntu server" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>ZjLjTmM6FvvyRnrb2rfNWOZOTa6ip5If</t>
   </si>
@@ -376,10 +378,59 @@
     <t>bandit6</t>
   </si>
   <si>
-    <t>J67tSefFKYcCAUUQmclCbDzpijgUE2VZeC2LHFikNP3IuTbERBw6CpeLRqDJskyUvZwpeP6helUWai750jaGVNpGJ94gorbwQLPwHfDwb2XLLzrC4jfmn8JLXT0jeVkIW4VfCqUSeHyKNsozJ2gYgZLInRFlWqxcKG6DR9CIRGAWUKeIBRUN8sxvxdNGvc8jhbg3RIeGq05WlkPxGNPCwxYCcu1hCGqdtfGbqGeyVaYIEDfetHS1siBU1IpM113A2Ysswv79cJ6S2ikv1MpWg8gpWLFaCUCJnyhcLAes1FeQ1e5VqxcxeO11DCxA57thoQ13UnxCBqttGVrez1jmDD22AEVOAASfzbEcXNcmZOBwdbx49AzLyiOmrS2XGZfDKlRVoF09LzUA8XqMPO9B10fSQitGs0Npgy6PQANJNGOVIQoCU4yi4f5lw77KV3f9IGlx2FtChC3F5vyW2fO4YFbp0983sBWScC9UbRhJF1HYCJfRlZ6uuNgcsZJ2I63H7zBPr3t64qEAXABSJcwtiTm68pUuppbApPsA5KjJtC1ih1O3w4kdjnLY2CdLFUZTse9zHzwuoKZNeKL0kkhOqFLDfCetfXlaff3PNmX6q9zw8rfwe1vQSwLOesguhdmArICSQ0Mk86JJQaA79wqt9Eig2BzrSd2Fy5JbxWU7W3zJPnPXA3hCA3lvpe1vlPRIYuU9nnTWhTLlYOlRwuBEoswyFB9QaWOufgNGL85eOJahzeXMLBh8suJlLiz7C4stadra5mdONGv40VzehCM2r6xeQG0JfctB1qX7BBlzB5nJI1g79iK6QBZ655vdMsevMOMj9187wQlWKIRCq8KEfRhs9kii4aJ2l6xsBNxDlaa7Ec3CAfBrumMlIUT4uAHAOKpkoIMGzmmTWsVR1oF48cV8JsOUb92wI7XCz2Ljm8KuTO1RWxJuL3s2K1srWijpnDM4XlQ2PUlvXxRBrBYQF4AFYtLiPSKraimoTST7sxeCrP5OXUpCdFresPVRs7aDQZJz4JOMFdVKP6M4NAu4LomPMGQU84q7YlzIVCkFnGt0nIGBeO7VfwIf6tJbqSWjbiVt7oge2CadpHvPyZRo8QpZJYsJLdvbI8l3Fc2onq6aJi6xDEyle8MQPyWqsIgmDmLA0pDbJYarVgKXyy73QQuvOHk5Fz7ks0KfMaQz94Y3CVemLfPSHpCRTcmOO76suMpIFG0bUDaxGkfw9RCshPGmcNfU4wedjyPlK7Tv0CJVvKpOOy18UW5X9iZ65su5jP5K0mhJTQD71yw7E36FeLi9mf5cS21K8vGWlbt5ggzeUlFkDLV9wIwGK4Ga4zCTfvI2OuCX9mQjzqtMZ59piS6flG9D8zrrwSuxgQ0qTZuWeA660o3nKZuO5M3K1HXfHKFYd33wCdxgLdzaI1KayFO9siDyQY9d5v3mc6lXqFuZOIDmeWQZulZO4OBAYIQ477QRf6mEcSWGve7V4DdGneHg40s93UyhYBthWGfz6bj5nJQNWtgnTbEGyYaHuoaTdw2VAdfxAwWLaiNkzlivEEHKHOjU1hfnwL62REdahU9GyWau8LsZ8jq31TBWxfkhghpLHaKVeFCfStsayhBX4TuHjuVhX6Acl8GIBirk5rQcNUoLupRlqMnnCXDPDiAhLtpTaXO3EYTSU1aUcG9hTG1B0tyBBvw7yQQr349olyczqqgyYpkgd6Lzkc2BlkpjjrNzdUgCZmCZwEA4Ftj4JSb0LZRlt2MbeFMnw33AFoAY3XoSARLuPzlLqE6yTiliGCVUAbVhJkDmP0oSybURITNnCwTvYbbdeXbYbo9BVXMRafxBqZNo4V2lfQdy4WUTgBmhCq0bLyqn7lb8B2E8UuNnVloj4ahn5RrmPfNhRN59X6Ux4nN1ndGj6AOVrJS8BqGMuLKPFIGohyxmylEnTNHbZxg841cLnI57KLQA20DLryXx2qar0X9KvZwoK3Mfm8ydUYlfeAqlzpcfq3rxJAkeV4uIyQMu5ItfXslTTo3pRbbdF8NazwFDEIDzBBBHnA04RW2gdo4FyYKbUHZG2HI8Fc3BQjVLuTJlGH7pfXfubKqza6Q2NJrZ6yGlk1NA2v4XGiAbpl1nonni2u8WnTpNqagMnxbr3fZa1HW0XByt61c1SKMcwKo1PaoPeSvbXOx9ttOCSwoshNSq6GfyWPNUc3iHD3HEIeIfSnJ4G62i0RsLTNxpYfnMk5PjWL7KN83swOBBwYSubE2EWb2nphWADWZo6aeOnoxTcP6Rfl79rCq9P28xiNnV83QG8MVDnEpih2YXQZ5yP66TfoIv3Jth5kRWApANFg6trS6UPHsvEIRBUjknjqdLzuGUo86C76a1nXvTXKXiXOFKkpmdd1OZ2Km9ModpTFjLcNePOQYkrvpufMJFtBgyEfWSs52rzbpzTqZST7vmLPEI0iD2PuCCBHwx1P14n1HPfwNdvDezkllurmVodiE</t>
-  </si>
-  <si>
     <t>ssh  secure shell protocol</t>
+  </si>
+  <si>
+    <t>https://linuxsurvival.com/linux-change-to-parent-directory-part-1/</t>
+  </si>
+  <si>
+    <t>https://overthewire.org/wargames/bandit/bandit6.html</t>
+  </si>
+  <si>
+    <t>https://bellard.org/jslinux/vm.html?cpu=riscv64&amp;url=fedora33-riscv.cfg&amp;mem=256</t>
+  </si>
+  <si>
+    <t>https://mayadevbe.me/tags/bandit/</t>
+  </si>
+  <si>
+    <t>https://shell.cloud.google.com/</t>
+  </si>
+  <si>
+    <t>https://web.dev/learn/html</t>
+  </si>
+  <si>
+    <t>https://labex.io/labs/linux-your-first-linux-lab-270253?course=quick-start-with-linux</t>
+  </si>
+  <si>
+    <t>ssh-keygen -t ed25519 -C "john@example.com"</t>
+  </si>
+  <si>
+    <t>cat ~/.ssh/id_ed25519.pub</t>
+  </si>
+  <si>
+    <t>mkdir -p ~/.ssh</t>
+  </si>
+  <si>
+    <t>chmod 700 ~/.ssh</t>
+  </si>
+  <si>
+    <t>1. Confirm the SSH key pair
+You said you have a .pub file (the public key) in ~/.ssh/.
+Normally, when you generate SSH keys (e.g., ssh-keygen), you get two files:
+id_rsa (or similar) — the private key (keep this secure, on your client machine)
+id_rsa.pub (or similar) — the public key (put this on the Linux server you want to connect to)
+2. What you need for remote access from home:
+Your private key (id_rsa) needs to be on the client machine you will SSH from (your home PC).
+Your public key (id_rsa.pub) needs to be added to the Linux server’s ~/.ssh/authorized_keys file.</t>
+  </si>
+  <si>
+    <t>HWasnPhtq9AVKe0dmk45nxy20cvUa6EG</t>
+  </si>
+  <si>
+    <t>morbNTDkSW6jIlUc0ymOdMaLnOlFVAaj</t>
+  </si>
+  <si>
+    <t>bandit7</t>
   </si>
 </sst>
 </file>
@@ -738,15 +789,15 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.90625" customWidth="1"/>
-    <col min="4" max="4" width="171.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="171.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -757,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -802,7 +853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="72.5">
+    <row r="5" spans="1:4" ht="75">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -821,7 +872,7 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -831,6 +882,12 @@
       </c>
     </row>
     <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
@@ -838,7 +895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17.5">
+    <row r="8" spans="1:4" ht="18">
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
@@ -846,7 +903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="43.5">
+    <row r="9" spans="1:4" ht="45">
       <c r="C9" t="s">
         <v>23</v>
       </c>
@@ -854,7 +911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="72.5">
+    <row r="10" spans="1:4" ht="75">
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -862,7 +919,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17.5">
+    <row r="11" spans="1:4" ht="18">
       <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
@@ -873,6 +930,103 @@
     <row r="12" spans="1:4">
       <c r="C12" s="5" t="s">
         <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A6ECBB-6240-4FD1-A7DD-FDC821975789}">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="78.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918F0F7F-3FE7-4EB1-AD22-BE39CC8FF583}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="330">
+      <c r="A5" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Bandit.xlsx
+++ b/Bandit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fava\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\vue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EE60E2-B040-48D0-B91A-DE8DF407F400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6162736A-DBE0-41C6-BA89-5DD0C5B70DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="3510" windowWidth="18000" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="linux" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>ZjLjTmM6FvvyRnrb2rfNWOZOTa6ip5If</t>
   </si>
@@ -432,12 +432,120 @@
   <si>
     <t>bandit7</t>
   </si>
+  <si>
+    <t>bandit8</t>
+  </si>
+  <si>
+    <t>dfwvzFQi4mU0wfNbFOe9RoWskMLg7eEc</t>
+  </si>
+  <si>
+    <t>4CKMh1JI91bUIZZPXDqGanal4xvAg0JM</t>
+  </si>
+  <si>
+    <t>bandit9</t>
+  </si>
+  <si>
+    <t>bandit10</t>
+  </si>
+  <si>
+    <t>bandit11</t>
+  </si>
+  <si>
+    <t>bandit12</t>
+  </si>
+  <si>
+    <t>bandit13</t>
+  </si>
+  <si>
+    <t>bandit14</t>
+  </si>
+  <si>
+    <t>bandit15</t>
+  </si>
+  <si>
+    <t>bandit16</t>
+  </si>
+  <si>
+    <t>bandit17</t>
+  </si>
+  <si>
+    <t>bandit18</t>
+  </si>
+  <si>
+    <t>bandit19</t>
+  </si>
+  <si>
+    <t>bandit20</t>
+  </si>
+  <si>
+    <t>bandit21</t>
+  </si>
+  <si>
+    <t>bandit22</t>
+  </si>
+  <si>
+    <t>bandit23</t>
+  </si>
+  <si>
+    <t>bandit24</t>
+  </si>
+  <si>
+    <t>bandit25</t>
+  </si>
+  <si>
+    <t>bandit26</t>
+  </si>
+  <si>
+    <t>FGUW5ilLVJrxX9kMYMmlN4MgbpfMiqey</t>
+  </si>
+  <si>
+    <t>cat data.txt | grep millionth</t>
+  </si>
+  <si>
+    <t>sort data.txt | uniq -u</t>
+  </si>
+  <si>
+    <t>uniq is a command that filters input and writes to the output. Specifically, it filters based on identical lines. It has a flag -u, which filters for unique lines (lines that appear only ones). Another interesting functionality is, for example, that it can also count (-c) or only return duplicate lines (-d).
+The command is often used with sort. For uniq to filter for unique lines, the lines need to be sorted. sort sorts the lines of a text file. Furthermore, it has flags for sorting in reverse (-r) and sorting numerically (-n).</t>
+  </si>
+  <si>
+    <t>First, we need to distinguish human-readable strings in ‘data.txt’. We use the strings command.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">strings data.txt | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFABD3F"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>grep</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFEBDBB2"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF98971A"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>===</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,6 +578,27 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFEBDBB2"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFABD3F"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF98971A"/>
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
@@ -786,18 +915,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.140625" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" customWidth="1"/>
-    <col min="4" max="4" width="171.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.1796875" customWidth="1"/>
+    <col min="3" max="3" width="38.81640625" customWidth="1"/>
+    <col min="4" max="4" width="171.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -853,7 +982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="75">
+    <row r="5" spans="1:4" ht="72.5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -895,7 +1024,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18">
+    <row r="8" spans="1:4" ht="17.5">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
@@ -903,7 +1038,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45">
+    <row r="9" spans="1:4" ht="43.5">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
@@ -911,7 +1052,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="75">
+    <row r="10" spans="1:4" ht="72.5">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -919,7 +1066,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18">
+    <row r="11" spans="1:4" ht="17.5">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
       <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
@@ -928,11 +1078,100 @@
       </c>
     </row>
     <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
       <c r="C12" s="5" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="72.5">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -946,9 +1185,9 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="78.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -999,7 +1238,7 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
   </cols>
@@ -1024,7 +1263,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="330">
+    <row r="5" spans="1:1" ht="275.5">
       <c r="A5" s="4" t="s">
         <v>44</v>
       </c>

--- a/Bandit.xlsx
+++ b/Bandit.xlsx
@@ -5,17 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\vue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Vue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6162736A-DBE0-41C6-BA89-5DD0C5B70DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63F1180-8C5D-4E19-91E1-8AA345828FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="linux" sheetId="1" r:id="rId1"/>
     <sheet name="sites" sheetId="2" r:id="rId2"/>
     <sheet name="ubuntu server" sheetId="3" r:id="rId3"/>
+    <sheet name="notes" sheetId="4" r:id="rId4"/>
+    <sheet name="Chart1" sheetId="6" r:id="rId5"/>
+    <sheet name="command line" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>ZjLjTmM6FvvyRnrb2rfNWOZOTa6ip5If</t>
   </si>
@@ -540,12 +543,88 @@
       <t>===</t>
     </r>
   </si>
+  <si>
+    <t>Debian is an operating system composed entirely of free and open-source software</t>
+  </si>
+  <si>
+    <t>Linus Torvalds</t>
+  </si>
+  <si>
+    <t>Debian also uses Debian package management tools. Every Linux distribution installs and manages packages differently and they use different package management tools.</t>
+  </si>
+  <si>
+    <t>Red Hat Enterprise Linux commonly referred to as RHEL is developed by Red Hat. RHEL has strict rules to restrict free re-distribution although it still provides source code for free.</t>
+  </si>
+  <si>
+    <t>RHEL uses a different package manager than Debian, RPM package manager, which we will eventually learn about as well</t>
+  </si>
+  <si>
+    <t>Ubuntu is a Debian-based operating system developed by Canonical</t>
+  </si>
+  <si>
+    <t>Backed by Red Hat, the Fedora Project is community driven containing open-source and free software. Red Hat Enterprise Linux branches off Fedora, so think of Fedora as an upstream RHEL operating system.</t>
+  </si>
+  <si>
+    <t>Eventually RHEL will get updates from Fedora after thorough testing and quality assurance. Think of Fedora as an Ubuntu equivalent that uses a Red Hat backend instead of Debian.</t>
+  </si>
+  <si>
+    <t>Linux Mint is based off of Ubuntu. It uses Ubuntu’s software repositories so the same packages are available on both distributions.</t>
+  </si>
+  <si>
+    <t>Since Linux Mint is Ubuntu based, it uses the Debian package manager.</t>
+  </si>
+  <si>
+    <t>apt is a widely used package manager for Debian-based systems, such as Ubuntu.</t>
+  </si>
+  <si>
+    <t>Gentoo offers ridiculous flexibility with the operating system at a price. It’s made for advanced users who don’t mind getting their hands dirty with the system.</t>
+  </si>
+  <si>
+    <t>Gentoo uses its own package management, Portage. The Portage package management is very modular and easy to maintain, which plays a big part in the operating system as a whole being very flexible.</t>
+  </si>
+  <si>
+    <t>Linux Destributions</t>
+  </si>
+  <si>
+    <t>Arch is a lightweight and flexible Linux distribution driven 100% by the community. Similar to Debian, Arch uses a rolling release model so incremental updates eventually become the Stable release. You really need to get your hands dirty to understand the system and its functions, but in turn you get complete and total control of your system. Arch uses a package manager named Pacman</t>
+  </si>
+  <si>
+    <t>openSUSE Linux is created by the openSUSE Project. A community that promotes the use of Linux everywhere, working together in an open, transparent and friendly manner as part of the worldwide Free and Open Source Software community. openSUSE is the second oldest still running Linux Distributions and shares the base system with SUSE's award-winning SUSE Linux Enterprise products, Uses RPM package manager.</t>
+  </si>
+  <si>
+    <t>openSUSE is a great choice for a new Linux user. It offers an easy to use graphical installer/administration application (YaST) and a tiday base system, easy to tinker with. openSUSE includes everything you need to enjoy the Internet worry free of viruses/spy-ware and to live out your creativity, be it with your photos, videos, music or code.</t>
+  </si>
+  <si>
+    <t>openSUSE is a great choice for a new Linux user. It offers an easy to use graphical installer/administration application (YaST) and a tiday base system, easy to tinker with.</t>
+  </si>
+  <si>
+    <t>The shell is basically a program that takes your commands from the keyboard and sends them to the operating system to perform</t>
+  </si>
+  <si>
+    <t>command line</t>
+  </si>
+  <si>
+    <t>“Terminal” or “Console” these are just programs that launch a shell for you.</t>
+  </si>
+  <si>
+    <t>Everything in Linux is a file</t>
+  </si>
+  <si>
+    <t>Every file is organized in a hierarchical directory tree. The first directory in the filesystem is aptly named the root directory. The root directory has many folders and files which you can store more folders and files, etc.</t>
+  </si>
+  <si>
+    <t>There are two different ways to specify a path, with absolute and relative paths.</t>
+  </si>
+  <si>
+    <t>Absolute path: This is the path from the root directory. The root is the head honcho. The root directory is commonly shown as a slash. Every time your path starts with / it means you are starting from the root directory. For example, /home/pete/Desktop.
+Relative path: This is the path from where you are currently in filesystem. If I was in location /home/pete/Documents and wanted to get to a directory inside Documents called taxes, I don’t have to specify the whole path from root like /home/pete/Documents/taxes, I can just go to taxes/ instead.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,16 +680,59 @@
       <color rgb="FF98971A"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -618,11 +740,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -635,8 +773,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -650,6 +801,868 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'command line'!$A$1:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>command line</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>The shell is basically a program that takes your commands from the keyboard and sends them to the operating system to perform</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>“Terminal” or “Console” these are just programs that launch a shell for you.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Everything in Linux is a file</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Every file is organized in a hierarchical directory tree. The first directory in the filesystem is aptly named the root directory. The root directory has many folders and files which you can store more folders and files, etc.</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>There are two different ways to specify a path, with absolute and relative paths.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Absolute path: This is the path from the root directory. The root is the head honcho. The root directory is commonly shown as a slash. Every time your path starts with / it means you are starting from the root directory. For example, /home/pete/Desktop.
+R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'command line'!$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2BFB-4044-8E81-948A8219DCCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1703085935"/>
+        <c:axId val="1703086415"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1703085935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1703086415"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1703086415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1703085935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{4D839E77-75DF-4712-BDDE-F713A0C190D5}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="67" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8672015" cy="6297873"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C4FCDB-871F-AFBF-C57A-DA42AE49639B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -917,16 +1930,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.1796875" customWidth="1"/>
-    <col min="3" max="3" width="38.81640625" customWidth="1"/>
-    <col min="4" max="4" width="171.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="171.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -982,7 +1995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="72.5">
+    <row r="5" spans="1:4" ht="75">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1024,7 +2037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17.5">
+    <row r="8" spans="1:4" ht="18">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1038,7 +2051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="43.5">
+    <row r="9" spans="1:4" ht="45">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -1052,7 +2065,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="72.5">
+    <row r="10" spans="1:4" ht="75">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -1066,7 +2079,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17.5">
+    <row r="11" spans="1:4" ht="18">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -1093,7 +2106,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="72.5">
+    <row r="14" spans="1:4" ht="75">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -1185,9 +2198,9 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="78.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1238,7 +2251,7 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
   </cols>
@@ -1263,7 +2276,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="275.5">
+    <row r="5" spans="1:1" ht="330">
       <c r="A5" s="4" t="s">
         <v>44</v>
       </c>
@@ -1272,4 +2285,298 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05233EF2-011E-4285-8745-0D9E827D016C}">
+  <dimension ref="A1:A60"/>
+  <sheetViews>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="46.5">
+      <c r="A1" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="31.5">
+      <c r="A2" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="31.5">
+      <c r="A3" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="31.5">
+      <c r="A4" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="63">
+      <c r="A5" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="63">
+      <c r="A6" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="31.5">
+      <c r="A7" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="31.5">
+      <c r="A8" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="63">
+      <c r="A9" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="63">
+      <c r="A10" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="31.5">
+      <c r="A11" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="31.5">
+      <c r="A12" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="63">
+      <c r="A13" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="63">
+      <c r="A14" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="126">
+      <c r="A15" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="126">
+      <c r="A16" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="94.5">
+      <c r="A17" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="31.5">
+      <c r="A19" s="9"/>
+    </row>
+    <row r="20" spans="1:1" ht="31.5">
+      <c r="A20" s="9"/>
+    </row>
+    <row r="21" spans="1:1" ht="31.5">
+      <c r="A21" s="9"/>
+    </row>
+    <row r="22" spans="1:1" ht="31.5">
+      <c r="A22" s="9"/>
+    </row>
+    <row r="23" spans="1:1" ht="31.5">
+      <c r="A23" s="9"/>
+    </row>
+    <row r="24" spans="1:1" ht="31.5">
+      <c r="A24" s="9"/>
+    </row>
+    <row r="25" spans="1:1" ht="31.5">
+      <c r="A25" s="9"/>
+    </row>
+    <row r="26" spans="1:1" ht="31.5">
+      <c r="A26" s="9"/>
+    </row>
+    <row r="27" spans="1:1" ht="31.5">
+      <c r="A27" s="9"/>
+    </row>
+    <row r="28" spans="1:1" ht="31.5">
+      <c r="A28" s="9"/>
+    </row>
+    <row r="29" spans="1:1" ht="31.5">
+      <c r="A29" s="9"/>
+    </row>
+    <row r="30" spans="1:1" ht="31.5">
+      <c r="A30" s="9"/>
+    </row>
+    <row r="31" spans="1:1" ht="31.5">
+      <c r="A31" s="9"/>
+    </row>
+    <row r="32" spans="1:1" ht="31.5">
+      <c r="A32" s="9"/>
+    </row>
+    <row r="33" spans="1:1" ht="31.5">
+      <c r="A33" s="9"/>
+    </row>
+    <row r="34" spans="1:1" ht="31.5">
+      <c r="A34" s="9"/>
+    </row>
+    <row r="35" spans="1:1" ht="31.5">
+      <c r="A35" s="9"/>
+    </row>
+    <row r="36" spans="1:1" ht="31.5">
+      <c r="A36" s="9"/>
+    </row>
+    <row r="37" spans="1:1" ht="31.5">
+      <c r="A37" s="9"/>
+    </row>
+    <row r="38" spans="1:1" ht="31.5">
+      <c r="A38" s="9"/>
+    </row>
+    <row r="39" spans="1:1" ht="31.5">
+      <c r="A39" s="9"/>
+    </row>
+    <row r="40" spans="1:1" ht="31.5">
+      <c r="A40" s="9"/>
+    </row>
+    <row r="41" spans="1:1" ht="31.5">
+      <c r="A41" s="9"/>
+    </row>
+    <row r="42" spans="1:1" ht="31.5">
+      <c r="A42" s="9"/>
+    </row>
+    <row r="43" spans="1:1" ht="31.5">
+      <c r="A43" s="9"/>
+    </row>
+    <row r="44" spans="1:1" ht="31.5">
+      <c r="A44" s="9"/>
+    </row>
+    <row r="45" spans="1:1" ht="31.5">
+      <c r="A45" s="9"/>
+    </row>
+    <row r="46" spans="1:1" ht="31.5">
+      <c r="A46" s="9"/>
+    </row>
+    <row r="47" spans="1:1" ht="31.5">
+      <c r="A47" s="9"/>
+    </row>
+    <row r="48" spans="1:1" ht="31.5">
+      <c r="A48" s="9"/>
+    </row>
+    <row r="49" spans="1:1" ht="31.5">
+      <c r="A49" s="9"/>
+    </row>
+    <row r="50" spans="1:1" ht="31.5">
+      <c r="A50" s="9"/>
+    </row>
+    <row r="51" spans="1:1" ht="31.5">
+      <c r="A51" s="9"/>
+    </row>
+    <row r="52" spans="1:1" ht="31.5">
+      <c r="A52" s="9"/>
+    </row>
+    <row r="53" spans="1:1" ht="31.5">
+      <c r="A53" s="9"/>
+    </row>
+    <row r="54" spans="1:1" ht="31.5">
+      <c r="A54" s="9"/>
+    </row>
+    <row r="55" spans="1:1" ht="31.5">
+      <c r="A55" s="9"/>
+    </row>
+    <row r="56" spans="1:1" ht="31.5">
+      <c r="A56" s="9"/>
+    </row>
+    <row r="57" spans="1:1" ht="31.5">
+      <c r="A57" s="9"/>
+    </row>
+    <row r="58" spans="1:1" ht="31.5">
+      <c r="A58" s="9"/>
+    </row>
+    <row r="59" spans="1:1" ht="31.5">
+      <c r="A59" s="9"/>
+    </row>
+    <row r="60" spans="1:1" ht="31.5">
+      <c r="A60" s="9"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A17" r:id="rId1" display="http://yast.github.io/" xr:uid="{726169B5-5003-4B5C-894D-CAB4A127CC1D}"/>
+    <hyperlink ref="A18" r:id="rId2" display="http://yast.github.io/" xr:uid="{1EFC90CD-67C8-4D82-AD09-6D2DE20A94C1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A76652C-2D18-4C56-9646-A2F80931A6E6}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="205.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="21">
+      <c r="A1" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="60">
+      <c r="A7" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>